--- a/External Resources/UI/Cupo/CasosPruebaValidarCupo.xlsx
+++ b/External Resources/UI/Cupo/CasosPruebaValidarCupo.xlsx
@@ -567,7 +567,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2423,7 +2423,9 @@
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
+      <c r="M30" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="N30" s="4"/>
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
@@ -2447,6 +2449,9 @@
         <v>888811111129</v>
       </c>
       <c r="D31" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M31" s="4" t="b">
         <v>0</v>
       </c>
       <c r="V31" s="4">
@@ -4326,7 +4331,9 @@
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
+      <c r="M30" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="N30" s="4"/>
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
@@ -4352,6 +4359,9 @@
       <c r="D31" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="M31" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="V31" s="4">
         <v>1</v>
       </c>

--- a/External Resources/UI/Cupo/CasosPruebaValidarCupo.xlsx
+++ b/External Resources/UI/Cupo/CasosPruebaValidarCupo.xlsx
@@ -567,7 +567,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/External Resources/UI/Cupo/CasosPruebaValidarCupo.xlsx
+++ b/External Resources/UI/Cupo/CasosPruebaValidarCupo.xlsx
@@ -722,7 +722,7 @@
         <v>1</v>
       </c>
       <c r="T2" s="4">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="U2" s="4" t="b">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>1</v>
       </c>
       <c r="T3" s="4">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="U3" s="4" t="b">
         <v>0</v>
@@ -844,7 +844,7 @@
         <v>1</v>
       </c>
       <c r="T4" s="4">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="U4" s="4" t="b">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>1</v>
       </c>
       <c r="T5" s="4">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="U5" s="4" t="b">
         <v>0</v>
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="T6" s="4">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="U6" s="4" t="b">
         <v>0</v>
@@ -1027,7 +1027,7 @@
         <v>1</v>
       </c>
       <c r="T7" s="4">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="U7" s="4" t="b">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>1</v>
       </c>
       <c r="T8" s="4">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="U8" s="4" t="b">
         <v>0</v>
@@ -1149,7 +1149,7 @@
         <v>1</v>
       </c>
       <c r="T9" s="4">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="U9" s="4" t="b">
         <v>0</v>
@@ -1210,7 +1210,7 @@
         <v>1</v>
       </c>
       <c r="T10" s="4">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="U10" s="4" t="b">
         <v>0</v>
@@ -1271,7 +1271,7 @@
         <v>1</v>
       </c>
       <c r="T11" s="4">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="U11" s="4" t="b">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>1</v>
       </c>
       <c r="T12" s="4">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="U12" s="4" t="b">
         <v>0</v>
@@ -1393,7 +1393,7 @@
         <v>1</v>
       </c>
       <c r="T13" s="4">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="U13" s="4" t="b">
         <v>0</v>
@@ -1454,7 +1454,7 @@
         <v>1</v>
       </c>
       <c r="T14" s="4">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="U14" s="4" t="b">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>1</v>
       </c>
       <c r="T16" s="4">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="U16" s="4" t="b">
         <v>0</v>
@@ -1641,7 +1641,7 @@
         <v>1</v>
       </c>
       <c r="T17" s="4">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="U17" s="4" t="b">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>1</v>
       </c>
       <c r="T18" s="4">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="U18" s="4" t="b">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>1</v>
       </c>
       <c r="T20" s="4">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="U20" s="4" t="b">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>1</v>
       </c>
       <c r="T21" s="4">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="U21" s="4" t="b">
         <v>0</v>
@@ -1963,7 +1963,7 @@
         <v>1</v>
       </c>
       <c r="T22" s="4">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="U22" s="4" t="b">
         <v>0</v>
@@ -2029,7 +2029,7 @@
         <v>1</v>
       </c>
       <c r="T23" s="4">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="U23" s="4" t="b">
         <v>0</v>
@@ -2095,7 +2095,7 @@
         <v>1</v>
       </c>
       <c r="T24" s="4">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="U24" s="4" t="b">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>1</v>
       </c>
       <c r="T25" s="4">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="U25" s="4" t="b">
         <v>0</v>
@@ -2215,7 +2215,7 @@
         <v>1</v>
       </c>
       <c r="T26" s="4">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="U26" s="4" t="b">
         <v>0</v>
@@ -2271,7 +2271,7 @@
         <v>1</v>
       </c>
       <c r="T27" s="4">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="U27" s="4" t="b">
         <v>0</v>
@@ -2337,7 +2337,7 @@
         <v>1</v>
       </c>
       <c r="T28" s="4">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="U28" s="4" t="b">
         <v>0</v>
@@ -2393,7 +2393,7 @@
         <v>1</v>
       </c>
       <c r="T29" s="4">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="U29" s="4" t="b">
         <v>0</v>
@@ -2630,7 +2630,7 @@
         <v>1</v>
       </c>
       <c r="T2" s="4">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="U2" s="4" t="b">
         <v>0</v>
@@ -2691,7 +2691,7 @@
         <v>1</v>
       </c>
       <c r="T3" s="4">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="U3" s="4" t="b">
         <v>0</v>
@@ -2752,7 +2752,7 @@
         <v>1</v>
       </c>
       <c r="T4" s="4">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="U4" s="4" t="b">
         <v>0</v>
@@ -2813,7 +2813,7 @@
         <v>1</v>
       </c>
       <c r="T5" s="4">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="U5" s="4" t="b">
         <v>0</v>
@@ -2874,7 +2874,7 @@
         <v>1</v>
       </c>
       <c r="T6" s="4">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="U6" s="4" t="b">
         <v>0</v>
@@ -2935,7 +2935,7 @@
         <v>1</v>
       </c>
       <c r="T7" s="4">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="U7" s="4" t="b">
         <v>0</v>
@@ -2996,7 +2996,7 @@
         <v>1</v>
       </c>
       <c r="T8" s="4">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="U8" s="4" t="b">
         <v>0</v>
@@ -3057,7 +3057,7 @@
         <v>1</v>
       </c>
       <c r="T9" s="4">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="U9" s="4" t="b">
         <v>0</v>
@@ -3118,7 +3118,7 @@
         <v>1</v>
       </c>
       <c r="T10" s="4">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="U10" s="4" t="b">
         <v>0</v>
@@ -3179,7 +3179,7 @@
         <v>1</v>
       </c>
       <c r="T11" s="4">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="U11" s="4" t="b">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>1</v>
       </c>
       <c r="T12" s="4">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="U12" s="4" t="b">
         <v>0</v>
@@ -3301,7 +3301,7 @@
         <v>1</v>
       </c>
       <c r="T13" s="4">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="U13" s="4" t="b">
         <v>0</v>
@@ -3362,7 +3362,7 @@
         <v>1</v>
       </c>
       <c r="T14" s="4">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="U14" s="4" t="b">
         <v>0</v>
@@ -3486,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="T16" s="4">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="U16" s="4" t="b">
         <v>0</v>
@@ -3549,7 +3549,7 @@
         <v>1</v>
       </c>
       <c r="T17" s="4">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="U17" s="4" t="b">
         <v>0</v>
@@ -3612,7 +3612,7 @@
         <v>1</v>
       </c>
       <c r="T18" s="4">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="U18" s="4" t="b">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         <v>1</v>
       </c>
       <c r="T20" s="4">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="U20" s="4" t="b">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>1</v>
       </c>
       <c r="T21" s="4">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="U21" s="4" t="b">
         <v>0</v>
@@ -3871,7 +3871,7 @@
         <v>1</v>
       </c>
       <c r="T22" s="4">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="U22" s="4" t="b">
         <v>0</v>
@@ -3937,7 +3937,7 @@
         <v>1</v>
       </c>
       <c r="T23" s="4">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="U23" s="4" t="b">
         <v>0</v>
@@ -4003,7 +4003,7 @@
         <v>1</v>
       </c>
       <c r="T24" s="4">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="U24" s="4" t="b">
         <v>0</v>
@@ -4057,7 +4057,7 @@
         <v>1</v>
       </c>
       <c r="T25" s="4">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="U25" s="4" t="b">
         <v>0</v>
@@ -4123,7 +4123,7 @@
         <v>1</v>
       </c>
       <c r="T26" s="4">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="U26" s="4" t="b">
         <v>0</v>
@@ -4179,7 +4179,7 @@
         <v>1</v>
       </c>
       <c r="T27" s="4">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="U27" s="4" t="b">
         <v>0</v>
@@ -4245,7 +4245,7 @@
         <v>1</v>
       </c>
       <c r="T28" s="4">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="U28" s="4" t="b">
         <v>0</v>
@@ -4301,7 +4301,7 @@
         <v>1</v>
       </c>
       <c r="T29" s="4">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="U29" s="4" t="b">
         <v>0</v>

--- a/External Resources/UI/Cupo/CasosPruebaValidarCupo.xlsx
+++ b/External Resources/UI/Cupo/CasosPruebaValidarCupo.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio.olivieri\RobotTesting\YARD\External Resources\UI\Cupo\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830ED6CA-9DA9-4E81-A475-6F4D6D5A28BE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
@@ -182,7 +188,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -272,6 +278,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -319,7 +328,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -352,9 +361,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -387,6 +413,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -562,11 +605,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -2471,7 +2514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X31"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/External Resources/UI/Cupo/CasosPruebaValidarCupo.xlsx
+++ b/External Resources/UI/Cupo/CasosPruebaValidarCupo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio.olivieri\RobotTesting\YARD\External Resources\UI\Cupo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830ED6CA-9DA9-4E81-A475-6F4D6D5A28BE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAEEC2E6-82A4-4145-B61E-575814445A04}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -609,7 +609,7 @@
   <dimension ref="A1:X31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -2517,8 +2517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="N1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/External Resources/UI/Cupo/CasosPruebaValidarCupo.xlsx
+++ b/External Resources/UI/Cupo/CasosPruebaValidarCupo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio.olivieri\RobotTesting\YARD\External Resources\UI\Cupo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAEEC2E6-82A4-4145-B61E-575814445A04}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2628CCAB-D0E9-4C8F-8EB6-0794404A6575}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -247,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -267,6 +267,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -608,9 +612,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="P1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -765,7 +769,7 @@
         <v>1</v>
       </c>
       <c r="T2" s="4">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="U2" s="4" t="b">
         <v>0</v>
@@ -826,7 +830,7 @@
         <v>1</v>
       </c>
       <c r="T3" s="4">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="U3" s="4" t="b">
         <v>0</v>
@@ -843,7 +847,7 @@
         <v>48</v>
       </c>
       <c r="C4" s="3">
-        <v>888811111127</v>
+        <v>888811111154</v>
       </c>
       <c r="D4" s="3" t="b">
         <v>0</v>
@@ -887,7 +891,7 @@
         <v>1</v>
       </c>
       <c r="T4" s="4">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="U4" s="4" t="b">
         <v>0</v>
@@ -904,7 +908,7 @@
         <v>48</v>
       </c>
       <c r="C5" s="3">
-        <v>888811111127</v>
+        <v>888811111154</v>
       </c>
       <c r="D5" s="3" t="b">
         <v>0</v>
@@ -948,7 +952,7 @@
         <v>1</v>
       </c>
       <c r="T5" s="4">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="U5" s="4" t="b">
         <v>0</v>
@@ -965,7 +969,7 @@
         <v>48</v>
       </c>
       <c r="C6" s="3">
-        <v>888811111127</v>
+        <v>888811111154</v>
       </c>
       <c r="D6" s="3" t="b">
         <v>0</v>
@@ -1009,7 +1013,7 @@
         <v>1</v>
       </c>
       <c r="T6" s="4">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="U6" s="4" t="b">
         <v>0</v>
@@ -1026,7 +1030,7 @@
         <v>48</v>
       </c>
       <c r="C7" s="3">
-        <v>888811111127</v>
+        <v>888811111154</v>
       </c>
       <c r="D7" s="3" t="b">
         <v>0</v>
@@ -1070,7 +1074,7 @@
         <v>1</v>
       </c>
       <c r="T7" s="4">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="U7" s="4" t="b">
         <v>0</v>
@@ -1087,7 +1091,7 @@
         <v>48</v>
       </c>
       <c r="C8" s="3">
-        <v>888811111127</v>
+        <v>888811111154</v>
       </c>
       <c r="D8" s="3" t="b">
         <v>0</v>
@@ -1131,7 +1135,7 @@
         <v>1</v>
       </c>
       <c r="T8" s="4">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="U8" s="4" t="b">
         <v>0</v>
@@ -1148,7 +1152,7 @@
         <v>48</v>
       </c>
       <c r="C9" s="3">
-        <v>888811111127</v>
+        <v>888811111154</v>
       </c>
       <c r="D9" s="3" t="b">
         <v>0</v>
@@ -1192,7 +1196,7 @@
         <v>1</v>
       </c>
       <c r="T9" s="4">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="U9" s="4" t="b">
         <v>0</v>
@@ -1209,7 +1213,7 @@
         <v>48</v>
       </c>
       <c r="C10" s="3">
-        <v>888811111127</v>
+        <v>888811111154</v>
       </c>
       <c r="D10" s="3" t="b">
         <v>0</v>
@@ -1253,7 +1257,7 @@
         <v>1</v>
       </c>
       <c r="T10" s="4">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="U10" s="4" t="b">
         <v>0</v>
@@ -1270,7 +1274,7 @@
         <v>48</v>
       </c>
       <c r="C11" s="3">
-        <v>888811111127</v>
+        <v>888811111154</v>
       </c>
       <c r="D11" s="3" t="b">
         <v>0</v>
@@ -1314,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="T11" s="4">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="U11" s="4" t="b">
         <v>0</v>
@@ -1331,7 +1335,7 @@
         <v>48</v>
       </c>
       <c r="C12" s="3">
-        <v>888811111127</v>
+        <v>888811111154</v>
       </c>
       <c r="D12" s="3" t="b">
         <v>0</v>
@@ -1375,7 +1379,7 @@
         <v>1</v>
       </c>
       <c r="T12" s="4">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="U12" s="4" t="b">
         <v>0</v>
@@ -1392,7 +1396,7 @@
         <v>48</v>
       </c>
       <c r="C13" s="3">
-        <v>888811111127</v>
+        <v>888811111154</v>
       </c>
       <c r="D13" s="3" t="b">
         <v>0</v>
@@ -1436,7 +1440,7 @@
         <v>1</v>
       </c>
       <c r="T13" s="4">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="U13" s="4" t="b">
         <v>0</v>
@@ -1453,7 +1457,7 @@
         <v>48</v>
       </c>
       <c r="C14" s="3">
-        <v>888811111127</v>
+        <v>888811111154</v>
       </c>
       <c r="D14" s="3" t="b">
         <v>0</v>
@@ -1497,7 +1501,7 @@
         <v>1</v>
       </c>
       <c r="T14" s="4">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="U14" s="4" t="b">
         <v>0</v>
@@ -1514,7 +1518,7 @@
         <v>48</v>
       </c>
       <c r="C15" s="3">
-        <v>888811111127</v>
+        <v>888811111154</v>
       </c>
       <c r="D15" s="3" t="b">
         <v>0</v>
@@ -1574,8 +1578,8 @@
       <c r="B16" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="6">
-        <v>888811111123</v>
+      <c r="C16" s="3">
+        <v>888811111154</v>
       </c>
       <c r="D16" s="3" t="b">
         <v>0</v>
@@ -1608,8 +1612,8 @@
       <c r="O16" s="5">
         <v>20160289768</v>
       </c>
-      <c r="P16" s="5">
-        <v>20263008570</v>
+      <c r="P16" s="7">
+        <v>20252208578</v>
       </c>
       <c r="Q16" s="4">
         <v>1</v>
@@ -1621,13 +1625,13 @@
         <v>1</v>
       </c>
       <c r="T16" s="4">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="U16" s="4" t="b">
         <v>0</v>
       </c>
       <c r="X16" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:24" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -1638,7 +1642,7 @@
         <v>48</v>
       </c>
       <c r="C17" s="3">
-        <v>888811111127</v>
+        <v>888811111154</v>
       </c>
       <c r="D17" s="3" t="b">
         <v>0</v>
@@ -1671,11 +1675,11 @@
       <c r="O17" s="5">
         <v>20160289768</v>
       </c>
-      <c r="P17" s="7">
-        <v>20252208578</v>
-      </c>
-      <c r="Q17" s="4">
-        <v>1</v>
+      <c r="P17" s="5">
+        <v>20263008570</v>
+      </c>
+      <c r="Q17" s="8">
+        <v>0</v>
       </c>
       <c r="R17" s="4">
         <v>1</v>
@@ -1684,13 +1688,13 @@
         <v>1</v>
       </c>
       <c r="T17" s="4">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="U17" s="4" t="b">
         <v>0</v>
       </c>
       <c r="X17" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:24" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -1701,7 +1705,7 @@
         <v>48</v>
       </c>
       <c r="C18" s="3">
-        <v>888811111127</v>
+        <v>888811111154</v>
       </c>
       <c r="D18" s="3" t="b">
         <v>0</v>
@@ -1737,8 +1741,8 @@
       <c r="P18" s="5">
         <v>20263008570</v>
       </c>
-      <c r="Q18" s="8">
-        <v>0</v>
+      <c r="Q18" s="4">
+        <v>1</v>
       </c>
       <c r="R18" s="4">
         <v>1</v>
@@ -1746,17 +1750,17 @@
       <c r="S18" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="T18" s="4">
-        <v>70</v>
+      <c r="T18" s="8">
+        <v>77</v>
       </c>
       <c r="U18" s="4" t="b">
         <v>0</v>
       </c>
       <c r="X18" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>41</v>
       </c>
@@ -1764,7 +1768,7 @@
         <v>48</v>
       </c>
       <c r="C19" s="3">
-        <v>888811111127</v>
+        <v>888811111154</v>
       </c>
       <c r="D19" s="3" t="b">
         <v>0</v>
@@ -1779,15 +1783,16 @@
       <c r="H19" s="5">
         <v>30512823099</v>
       </c>
-      <c r="I19" s="5">
-        <v>30526712729</v>
-      </c>
-      <c r="J19" s="4">
-        <v>1</v>
-      </c>
-      <c r="K19" s="4">
-        <v>1</v>
-      </c>
+      <c r="I19" s="7">
+        <v>30526712729</v>
+      </c>
+      <c r="J19" s="8">
+        <v>6</v>
+      </c>
+      <c r="K19" s="8">
+        <v>4</v>
+      </c>
+      <c r="L19" s="4"/>
       <c r="M19" s="4" t="b">
         <v>0</v>
       </c>
@@ -1809,14 +1814,16 @@
       <c r="S19" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="T19" s="8">
-        <v>77</v>
+      <c r="T19" s="4">
+        <v>4</v>
       </c>
       <c r="U19" s="4" t="b">
         <v>0</v>
       </c>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
       <c r="X19" s="5" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1827,7 +1834,7 @@
         <v>48</v>
       </c>
       <c r="C20" s="3">
-        <v>888811111127</v>
+        <v>888811111154</v>
       </c>
       <c r="D20" s="3" t="b">
         <v>0</v>
@@ -1836,14 +1843,14 @@
       <c r="F20" s="4">
         <v>23</v>
       </c>
-      <c r="G20" s="5">
-        <v>30512823099</v>
+      <c r="G20" s="7">
+        <v>30526712729</v>
       </c>
       <c r="H20" s="5">
         <v>30512823099</v>
       </c>
-      <c r="I20" s="7">
-        <v>30526712729</v>
+      <c r="I20" s="5">
+        <v>30512823099</v>
       </c>
       <c r="J20" s="8">
         <v>6</v>
@@ -1874,7 +1881,7 @@
         <v>1</v>
       </c>
       <c r="T20" s="4">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="U20" s="4" t="b">
         <v>0</v>
@@ -1893,7 +1900,7 @@
         <v>48</v>
       </c>
       <c r="C21" s="3">
-        <v>888811111127</v>
+        <v>888811111154</v>
       </c>
       <c r="D21" s="3" t="b">
         <v>0</v>
@@ -1902,20 +1909,20 @@
       <c r="F21" s="4">
         <v>23</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="5">
         <v>30526712729</v>
       </c>
       <c r="H21" s="5">
         <v>30512823099</v>
       </c>
-      <c r="I21" s="5">
-        <v>30512823099</v>
+      <c r="I21" s="7">
+        <v>23041308729</v>
       </c>
       <c r="J21" s="8">
-        <v>6</v>
-      </c>
-      <c r="K21" s="8">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="K21" s="4">
+        <v>1</v>
       </c>
       <c r="L21" s="4"/>
       <c r="M21" s="4" t="b">
@@ -1940,7 +1947,7 @@
         <v>1</v>
       </c>
       <c r="T21" s="4">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="U21" s="4" t="b">
         <v>0</v>
@@ -1948,10 +1955,10 @@
       <c r="V21" s="4"/>
       <c r="W21" s="4"/>
       <c r="X21" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>41</v>
       </c>
@@ -1959,7 +1966,7 @@
         <v>48</v>
       </c>
       <c r="C22" s="3">
-        <v>888811111127</v>
+        <v>888811111154</v>
       </c>
       <c r="D22" s="3" t="b">
         <v>0</v>
@@ -1978,10 +1985,10 @@
         <v>23041308729</v>
       </c>
       <c r="J22" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K22" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L22" s="4"/>
       <c r="M22" s="4" t="b">
@@ -2006,7 +2013,7 @@
         <v>1</v>
       </c>
       <c r="T22" s="4">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="U22" s="4" t="b">
         <v>0</v>
@@ -2014,10 +2021,10 @@
       <c r="V22" s="4"/>
       <c r="W22" s="4"/>
       <c r="X22" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>41</v>
       </c>
@@ -2025,7 +2032,7 @@
         <v>48</v>
       </c>
       <c r="C23" s="3">
-        <v>888811111127</v>
+        <v>888811111154</v>
       </c>
       <c r="D23" s="3" t="b">
         <v>0</v>
@@ -2040,16 +2047,16 @@
       <c r="H23" s="5">
         <v>30512823099</v>
       </c>
-      <c r="I23" s="7">
-        <v>23041308729</v>
-      </c>
-      <c r="J23" s="8">
-        <v>3</v>
+      <c r="I23" s="5">
+        <v>30526712729</v>
+      </c>
+      <c r="J23" s="4">
+        <v>1</v>
       </c>
       <c r="K23" s="4">
-        <v>6</v>
-      </c>
-      <c r="L23" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="L23" s="8"/>
       <c r="M23" s="4" t="b">
         <v>0</v>
       </c>
@@ -2072,7 +2079,7 @@
         <v>1</v>
       </c>
       <c r="T23" s="4">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="U23" s="4" t="b">
         <v>0</v>
@@ -2080,7 +2087,7 @@
       <c r="V23" s="4"/>
       <c r="W23" s="4"/>
       <c r="X23" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
@@ -2091,31 +2098,19 @@
         <v>48</v>
       </c>
       <c r="C24" s="3">
-        <v>888811111127</v>
+        <v>888811111154</v>
       </c>
       <c r="D24" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="4">
-        <v>23</v>
-      </c>
-      <c r="G24" s="5">
-        <v>30526712729</v>
-      </c>
-      <c r="H24" s="5">
-        <v>30512823099</v>
-      </c>
-      <c r="I24" s="5">
-        <v>30526712729</v>
-      </c>
-      <c r="J24" s="4">
-        <v>1</v>
-      </c>
-      <c r="K24" s="4">
-        <v>1</v>
-      </c>
-      <c r="L24" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
       <c r="M24" s="4" t="b">
         <v>0</v>
       </c>
@@ -2138,7 +2133,7 @@
         <v>1</v>
       </c>
       <c r="T24" s="4">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="U24" s="4" t="b">
         <v>0</v>
@@ -2146,23 +2141,21 @@
       <c r="V24" s="4"/>
       <c r="W24" s="4"/>
       <c r="X24" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="3">
-        <v>888811111127</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C25" s="6"/>
       <c r="D25" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E25" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="3"/>
       <c r="F25" s="4"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
@@ -2173,100 +2166,79 @@
       <c r="M25" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="N25" s="4">
-        <v>1</v>
-      </c>
-      <c r="O25" s="5">
-        <v>20160289768</v>
-      </c>
-      <c r="P25" s="5">
-        <v>20263008570</v>
-      </c>
-      <c r="Q25" s="4">
-        <v>1</v>
-      </c>
-      <c r="R25" s="4">
-        <v>1</v>
-      </c>
-      <c r="S25" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="T25" s="4">
-        <v>70</v>
-      </c>
-      <c r="U25" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="V25" s="4"/>
-      <c r="W25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
       <c r="X25" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="3">
-        <v>888811111127</v>
-      </c>
-      <c r="D26" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="4">
-        <v>23</v>
-      </c>
-      <c r="G26" s="5">
-        <v>30512823099</v>
-      </c>
-      <c r="H26" s="5">
-        <v>30512823099</v>
-      </c>
-      <c r="I26" s="5">
-        <v>30526712729</v>
-      </c>
-      <c r="J26" s="4">
-        <v>1</v>
-      </c>
-      <c r="K26" s="4">
-        <v>1</v>
-      </c>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="N26" s="4">
-        <v>1</v>
-      </c>
-      <c r="O26" s="5">
-        <v>20160289768</v>
-      </c>
-      <c r="P26" s="5">
-        <v>20263008570</v>
-      </c>
-      <c r="Q26" s="4">
-        <v>1</v>
-      </c>
-      <c r="R26" s="4">
-        <v>1</v>
-      </c>
-      <c r="S26" s="4" t="b">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="6">
+        <v>888811111153</v>
+      </c>
+      <c r="D26" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="F26" s="10">
+        <v>23</v>
+      </c>
+      <c r="G26" s="11">
+        <v>30512823099</v>
+      </c>
+      <c r="H26" s="11">
+        <v>30512823099</v>
+      </c>
+      <c r="I26" s="11">
+        <v>30526712729</v>
+      </c>
+      <c r="J26" s="10">
+        <v>1</v>
+      </c>
+      <c r="K26" s="10">
+        <v>1</v>
+      </c>
+      <c r="M26" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="N26" s="10">
+        <v>1</v>
+      </c>
+      <c r="O26" s="11">
+        <v>20160289768</v>
+      </c>
+      <c r="P26" s="11">
+        <v>20263008570</v>
+      </c>
+      <c r="Q26" s="10">
+        <v>1</v>
+      </c>
+      <c r="R26" s="10">
+        <v>1</v>
+      </c>
+      <c r="S26" s="10" t="b">
         <v>1</v>
       </c>
       <c r="T26" s="4">
-        <v>70</v>
-      </c>
-      <c r="U26" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="V26" s="4"/>
-      <c r="W26" s="4"/>
-      <c r="X26" s="5" t="s">
-        <v>42</v>
+        <v>4</v>
+      </c>
+      <c r="U26" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="X26" s="11" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
@@ -2277,20 +2249,30 @@
         <v>48</v>
       </c>
       <c r="C27" s="3">
-        <v>888811111127</v>
+        <v>888811111155</v>
       </c>
       <c r="D27" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="4">
+        <v>23</v>
+      </c>
+      <c r="G27" s="5">
+        <v>30512823099</v>
+      </c>
+      <c r="H27" s="5">
+        <v>30512823099</v>
+      </c>
+      <c r="I27" s="5">
+        <v>30526712729</v>
+      </c>
+      <c r="J27" s="4">
+        <v>1</v>
+      </c>
+      <c r="K27" s="4">
+        <v>1</v>
+      </c>
       <c r="L27" s="4"/>
       <c r="M27" s="4" t="b">
         <v>0</v>
@@ -2314,7 +2296,7 @@
         <v>1</v>
       </c>
       <c r="T27" s="4">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="U27" s="4" t="b">
         <v>0</v>
@@ -2333,33 +2315,23 @@
         <v>48</v>
       </c>
       <c r="C28" s="3">
-        <v>888811111127</v>
+        <v>888811111156</v>
       </c>
       <c r="D28" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="4">
-        <v>23</v>
-      </c>
-      <c r="G28" s="5">
-        <v>30512823099</v>
-      </c>
-      <c r="H28" s="5">
-        <v>30512823099</v>
-      </c>
-      <c r="I28" s="5">
-        <v>30526712729</v>
-      </c>
-      <c r="J28" s="4">
-        <v>1</v>
-      </c>
-      <c r="K28" s="4">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28" s="4">
         <v>1</v>
@@ -2380,7 +2352,7 @@
         <v>1</v>
       </c>
       <c r="T28" s="4">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="U28" s="4" t="b">
         <v>0</v>
@@ -2399,20 +2371,30 @@
         <v>48</v>
       </c>
       <c r="C29" s="3">
-        <v>888811111127</v>
+        <v>888811111157</v>
       </c>
       <c r="D29" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="4">
+        <v>23</v>
+      </c>
+      <c r="G29" s="5">
+        <v>30512823099</v>
+      </c>
+      <c r="H29" s="5">
+        <v>30512823099</v>
+      </c>
+      <c r="I29" s="5">
+        <v>30526712729</v>
+      </c>
+      <c r="J29" s="4">
+        <v>1</v>
+      </c>
+      <c r="K29" s="4">
+        <v>1</v>
+      </c>
       <c r="L29" s="4"/>
       <c r="M29" s="4" t="b">
         <v>1</v>
@@ -2436,7 +2418,7 @@
         <v>1</v>
       </c>
       <c r="T29" s="4">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="U29" s="4" t="b">
         <v>0</v>
@@ -2449,16 +2431,20 @@
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="C30" s="3">
+        <v>888811111158</v>
+      </c>
       <c r="D30" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E30" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="F30" s="4"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
@@ -2467,18 +2453,36 @@
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
       <c r="M30" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="N30" s="4"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="4"/>
-      <c r="U30" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="N30" s="4">
+        <v>1</v>
+      </c>
+      <c r="O30" s="5">
+        <v>20160289768</v>
+      </c>
+      <c r="P30" s="5">
+        <v>20263008570</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>1</v>
+      </c>
+      <c r="R30" s="4">
+        <v>1</v>
+      </c>
+      <c r="S30" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="T30" s="4">
+        <v>4</v>
+      </c>
+      <c r="U30" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
       <c r="X30" s="5" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
@@ -2489,7 +2493,7 @@
         <v>49</v>
       </c>
       <c r="C31" s="3">
-        <v>888811111129</v>
+        <v>888811111159</v>
       </c>
       <c r="D31" s="3" t="b">
         <v>0</v>
@@ -2517,8 +2521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X31"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="N1" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2673,7 +2677,7 @@
         <v>1</v>
       </c>
       <c r="T2" s="4">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="U2" s="4" t="b">
         <v>0</v>
@@ -2734,7 +2738,7 @@
         <v>1</v>
       </c>
       <c r="T3" s="4">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="U3" s="4" t="b">
         <v>0</v>
@@ -2751,7 +2755,7 @@
         <v>48</v>
       </c>
       <c r="C4" s="3">
-        <v>888811111127</v>
+        <v>888811111154</v>
       </c>
       <c r="D4" s="3" t="b">
         <v>0</v>
@@ -2795,7 +2799,7 @@
         <v>1</v>
       </c>
       <c r="T4" s="4">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="U4" s="4" t="b">
         <v>0</v>
@@ -2812,7 +2816,7 @@
         <v>48</v>
       </c>
       <c r="C5" s="3">
-        <v>888811111127</v>
+        <v>888811111154</v>
       </c>
       <c r="D5" s="3" t="b">
         <v>0</v>
@@ -2856,7 +2860,7 @@
         <v>1</v>
       </c>
       <c r="T5" s="4">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="U5" s="4" t="b">
         <v>0</v>
@@ -2873,7 +2877,7 @@
         <v>48</v>
       </c>
       <c r="C6" s="3">
-        <v>888811111127</v>
+        <v>888811111154</v>
       </c>
       <c r="D6" s="3" t="b">
         <v>0</v>
@@ -2917,7 +2921,7 @@
         <v>1</v>
       </c>
       <c r="T6" s="4">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="U6" s="4" t="b">
         <v>0</v>
@@ -2934,7 +2938,7 @@
         <v>48</v>
       </c>
       <c r="C7" s="3">
-        <v>888811111127</v>
+        <v>888811111154</v>
       </c>
       <c r="D7" s="3" t="b">
         <v>0</v>
@@ -2978,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="T7" s="4">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="U7" s="4" t="b">
         <v>0</v>
@@ -2995,7 +2999,7 @@
         <v>48</v>
       </c>
       <c r="C8" s="3">
-        <v>888811111127</v>
+        <v>888811111154</v>
       </c>
       <c r="D8" s="3" t="b">
         <v>0</v>
@@ -3039,7 +3043,7 @@
         <v>1</v>
       </c>
       <c r="T8" s="4">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="U8" s="4" t="b">
         <v>0</v>
@@ -3056,7 +3060,7 @@
         <v>48</v>
       </c>
       <c r="C9" s="3">
-        <v>888811111127</v>
+        <v>888811111154</v>
       </c>
       <c r="D9" s="3" t="b">
         <v>0</v>
@@ -3100,7 +3104,7 @@
         <v>1</v>
       </c>
       <c r="T9" s="4">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="U9" s="4" t="b">
         <v>0</v>
@@ -3117,7 +3121,7 @@
         <v>48</v>
       </c>
       <c r="C10" s="3">
-        <v>888811111127</v>
+        <v>888811111154</v>
       </c>
       <c r="D10" s="3" t="b">
         <v>0</v>
@@ -3161,7 +3165,7 @@
         <v>1</v>
       </c>
       <c r="T10" s="4">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="U10" s="4" t="b">
         <v>0</v>
@@ -3178,7 +3182,7 @@
         <v>48</v>
       </c>
       <c r="C11" s="3">
-        <v>888811111127</v>
+        <v>888811111154</v>
       </c>
       <c r="D11" s="3" t="b">
         <v>0</v>
@@ -3222,7 +3226,7 @@
         <v>1</v>
       </c>
       <c r="T11" s="4">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="U11" s="4" t="b">
         <v>0</v>
@@ -3239,7 +3243,7 @@
         <v>48</v>
       </c>
       <c r="C12" s="3">
-        <v>888811111127</v>
+        <v>888811111154</v>
       </c>
       <c r="D12" s="3" t="b">
         <v>0</v>
@@ -3283,7 +3287,7 @@
         <v>1</v>
       </c>
       <c r="T12" s="4">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="U12" s="4" t="b">
         <v>0</v>
@@ -3300,7 +3304,7 @@
         <v>48</v>
       </c>
       <c r="C13" s="3">
-        <v>888811111127</v>
+        <v>888811111154</v>
       </c>
       <c r="D13" s="3" t="b">
         <v>0</v>
@@ -3344,7 +3348,7 @@
         <v>1</v>
       </c>
       <c r="T13" s="4">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="U13" s="4" t="b">
         <v>0</v>
@@ -3361,7 +3365,7 @@
         <v>48</v>
       </c>
       <c r="C14" s="3">
-        <v>888811111127</v>
+        <v>888811111154</v>
       </c>
       <c r="D14" s="3" t="b">
         <v>0</v>
@@ -3405,7 +3409,7 @@
         <v>1</v>
       </c>
       <c r="T14" s="4">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="U14" s="4" t="b">
         <v>0</v>
@@ -3422,7 +3426,7 @@
         <v>48</v>
       </c>
       <c r="C15" s="3">
-        <v>888811111127</v>
+        <v>888811111154</v>
       </c>
       <c r="D15" s="3" t="b">
         <v>0</v>
@@ -3482,8 +3486,8 @@
       <c r="B16" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="6">
-        <v>888811111123</v>
+      <c r="C16" s="3">
+        <v>888811111154</v>
       </c>
       <c r="D16" s="3" t="b">
         <v>0</v>
@@ -3516,8 +3520,8 @@
       <c r="O16" s="5">
         <v>20160289768</v>
       </c>
-      <c r="P16" s="5">
-        <v>20263008570</v>
+      <c r="P16" s="7">
+        <v>20252208578</v>
       </c>
       <c r="Q16" s="4">
         <v>1</v>
@@ -3529,13 +3533,13 @@
         <v>1</v>
       </c>
       <c r="T16" s="4">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="U16" s="4" t="b">
         <v>0</v>
       </c>
       <c r="X16" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:24" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -3546,7 +3550,7 @@
         <v>48</v>
       </c>
       <c r="C17" s="3">
-        <v>888811111127</v>
+        <v>888811111154</v>
       </c>
       <c r="D17" s="3" t="b">
         <v>0</v>
@@ -3579,11 +3583,11 @@
       <c r="O17" s="5">
         <v>20160289768</v>
       </c>
-      <c r="P17" s="7">
-        <v>20252208578</v>
-      </c>
-      <c r="Q17" s="4">
-        <v>1</v>
+      <c r="P17" s="5">
+        <v>20263008570</v>
+      </c>
+      <c r="Q17" s="8">
+        <v>0</v>
       </c>
       <c r="R17" s="4">
         <v>1</v>
@@ -3592,13 +3596,13 @@
         <v>1</v>
       </c>
       <c r="T17" s="4">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="U17" s="4" t="b">
         <v>0</v>
       </c>
       <c r="X17" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:24" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -3609,7 +3613,7 @@
         <v>48</v>
       </c>
       <c r="C18" s="3">
-        <v>888811111127</v>
+        <v>888811111154</v>
       </c>
       <c r="D18" s="3" t="b">
         <v>0</v>
@@ -3645,8 +3649,8 @@
       <c r="P18" s="5">
         <v>20263008570</v>
       </c>
-      <c r="Q18" s="8">
-        <v>0</v>
+      <c r="Q18" s="4">
+        <v>1</v>
       </c>
       <c r="R18" s="4">
         <v>1</v>
@@ -3654,17 +3658,17 @@
       <c r="S18" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="T18" s="4">
-        <v>70</v>
+      <c r="T18" s="8">
+        <v>77</v>
       </c>
       <c r="U18" s="4" t="b">
         <v>0</v>
       </c>
       <c r="X18" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>41</v>
       </c>
@@ -3672,7 +3676,7 @@
         <v>48</v>
       </c>
       <c r="C19" s="3">
-        <v>888811111127</v>
+        <v>888811111154</v>
       </c>
       <c r="D19" s="3" t="b">
         <v>0</v>
@@ -3687,15 +3691,16 @@
       <c r="H19" s="5">
         <v>30512823099</v>
       </c>
-      <c r="I19" s="5">
-        <v>30526712729</v>
-      </c>
-      <c r="J19" s="4">
-        <v>1</v>
-      </c>
-      <c r="K19" s="4">
-        <v>1</v>
-      </c>
+      <c r="I19" s="7">
+        <v>30526712729</v>
+      </c>
+      <c r="J19" s="8">
+        <v>6</v>
+      </c>
+      <c r="K19" s="8">
+        <v>4</v>
+      </c>
+      <c r="L19" s="4"/>
       <c r="M19" s="4" t="b">
         <v>0</v>
       </c>
@@ -3717,14 +3722,16 @@
       <c r="S19" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="T19" s="8">
-        <v>77</v>
+      <c r="T19" s="4">
+        <v>4</v>
       </c>
       <c r="U19" s="4" t="b">
         <v>0</v>
       </c>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
       <c r="X19" s="5" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3735,7 +3742,7 @@
         <v>48</v>
       </c>
       <c r="C20" s="3">
-        <v>888811111127</v>
+        <v>888811111154</v>
       </c>
       <c r="D20" s="3" t="b">
         <v>0</v>
@@ -3744,14 +3751,14 @@
       <c r="F20" s="4">
         <v>23</v>
       </c>
-      <c r="G20" s="5">
-        <v>30512823099</v>
+      <c r="G20" s="7">
+        <v>30526712729</v>
       </c>
       <c r="H20" s="5">
         <v>30512823099</v>
       </c>
-      <c r="I20" s="7">
-        <v>30526712729</v>
+      <c r="I20" s="5">
+        <v>30512823099</v>
       </c>
       <c r="J20" s="8">
         <v>6</v>
@@ -3782,7 +3789,7 @@
         <v>1</v>
       </c>
       <c r="T20" s="4">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="U20" s="4" t="b">
         <v>0</v>
@@ -3801,7 +3808,7 @@
         <v>48</v>
       </c>
       <c r="C21" s="3">
-        <v>888811111127</v>
+        <v>888811111154</v>
       </c>
       <c r="D21" s="3" t="b">
         <v>0</v>
@@ -3810,20 +3817,20 @@
       <c r="F21" s="4">
         <v>23</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="5">
         <v>30526712729</v>
       </c>
       <c r="H21" s="5">
         <v>30512823099</v>
       </c>
-      <c r="I21" s="5">
-        <v>30512823099</v>
+      <c r="I21" s="7">
+        <v>23041308729</v>
       </c>
       <c r="J21" s="8">
-        <v>6</v>
-      </c>
-      <c r="K21" s="8">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="K21" s="4">
+        <v>1</v>
       </c>
       <c r="L21" s="4"/>
       <c r="M21" s="4" t="b">
@@ -3848,7 +3855,7 @@
         <v>1</v>
       </c>
       <c r="T21" s="4">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="U21" s="4" t="b">
         <v>0</v>
@@ -3856,10 +3863,10 @@
       <c r="V21" s="4"/>
       <c r="W21" s="4"/>
       <c r="X21" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>41</v>
       </c>
@@ -3867,7 +3874,7 @@
         <v>48</v>
       </c>
       <c r="C22" s="3">
-        <v>888811111127</v>
+        <v>888811111154</v>
       </c>
       <c r="D22" s="3" t="b">
         <v>0</v>
@@ -3886,10 +3893,10 @@
         <v>23041308729</v>
       </c>
       <c r="J22" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K22" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L22" s="4"/>
       <c r="M22" s="4" t="b">
@@ -3914,7 +3921,7 @@
         <v>1</v>
       </c>
       <c r="T22" s="4">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="U22" s="4" t="b">
         <v>0</v>
@@ -3922,10 +3929,10 @@
       <c r="V22" s="4"/>
       <c r="W22" s="4"/>
       <c r="X22" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>41</v>
       </c>
@@ -3933,7 +3940,7 @@
         <v>48</v>
       </c>
       <c r="C23" s="3">
-        <v>888811111127</v>
+        <v>888811111154</v>
       </c>
       <c r="D23" s="3" t="b">
         <v>0</v>
@@ -3948,16 +3955,16 @@
       <c r="H23" s="5">
         <v>30512823099</v>
       </c>
-      <c r="I23" s="7">
-        <v>23041308729</v>
-      </c>
-      <c r="J23" s="8">
-        <v>3</v>
+      <c r="I23" s="5">
+        <v>30526712729</v>
+      </c>
+      <c r="J23" s="4">
+        <v>1</v>
       </c>
       <c r="K23" s="4">
-        <v>6</v>
-      </c>
-      <c r="L23" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="L23" s="8"/>
       <c r="M23" s="4" t="b">
         <v>0</v>
       </c>
@@ -3980,7 +3987,7 @@
         <v>1</v>
       </c>
       <c r="T23" s="4">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="U23" s="4" t="b">
         <v>0</v>
@@ -3988,7 +3995,7 @@
       <c r="V23" s="4"/>
       <c r="W23" s="4"/>
       <c r="X23" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
@@ -3999,31 +4006,19 @@
         <v>48</v>
       </c>
       <c r="C24" s="3">
-        <v>888811111127</v>
+        <v>888811111154</v>
       </c>
       <c r="D24" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="4">
-        <v>23</v>
-      </c>
-      <c r="G24" s="5">
-        <v>30526712729</v>
-      </c>
-      <c r="H24" s="5">
-        <v>30512823099</v>
-      </c>
-      <c r="I24" s="5">
-        <v>30526712729</v>
-      </c>
-      <c r="J24" s="4">
-        <v>1</v>
-      </c>
-      <c r="K24" s="4">
-        <v>1</v>
-      </c>
-      <c r="L24" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
       <c r="M24" s="4" t="b">
         <v>0</v>
       </c>
@@ -4046,7 +4041,7 @@
         <v>1</v>
       </c>
       <c r="T24" s="4">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="U24" s="4" t="b">
         <v>0</v>
@@ -4054,23 +4049,21 @@
       <c r="V24" s="4"/>
       <c r="W24" s="4"/>
       <c r="X24" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="3">
-        <v>888811111127</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C25" s="6"/>
       <c r="D25" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E25" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="3"/>
       <c r="F25" s="4"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
@@ -4081,100 +4074,79 @@
       <c r="M25" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="N25" s="4">
-        <v>1</v>
-      </c>
-      <c r="O25" s="5">
-        <v>20160289768</v>
-      </c>
-      <c r="P25" s="5">
-        <v>20263008570</v>
-      </c>
-      <c r="Q25" s="4">
-        <v>1</v>
-      </c>
-      <c r="R25" s="4">
-        <v>1</v>
-      </c>
-      <c r="S25" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="T25" s="4">
-        <v>70</v>
-      </c>
-      <c r="U25" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="V25" s="4"/>
-      <c r="W25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
       <c r="X25" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="3">
-        <v>888811111127</v>
-      </c>
-      <c r="D26" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="4">
-        <v>23</v>
-      </c>
-      <c r="G26" s="5">
-        <v>30512823099</v>
-      </c>
-      <c r="H26" s="5">
-        <v>30512823099</v>
-      </c>
-      <c r="I26" s="5">
-        <v>30526712729</v>
-      </c>
-      <c r="J26" s="4">
-        <v>1</v>
-      </c>
-      <c r="K26" s="4">
-        <v>1</v>
-      </c>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="N26" s="4">
-        <v>1</v>
-      </c>
-      <c r="O26" s="5">
-        <v>20160289768</v>
-      </c>
-      <c r="P26" s="5">
-        <v>20263008570</v>
-      </c>
-      <c r="Q26" s="4">
-        <v>1</v>
-      </c>
-      <c r="R26" s="4">
-        <v>1</v>
-      </c>
-      <c r="S26" s="4" t="b">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="6">
+        <v>888811111153</v>
+      </c>
+      <c r="D26" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="F26" s="10">
+        <v>23</v>
+      </c>
+      <c r="G26" s="11">
+        <v>30512823099</v>
+      </c>
+      <c r="H26" s="11">
+        <v>30512823099</v>
+      </c>
+      <c r="I26" s="11">
+        <v>30526712729</v>
+      </c>
+      <c r="J26" s="10">
+        <v>1</v>
+      </c>
+      <c r="K26" s="10">
+        <v>1</v>
+      </c>
+      <c r="M26" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="N26" s="10">
+        <v>1</v>
+      </c>
+      <c r="O26" s="11">
+        <v>20160289768</v>
+      </c>
+      <c r="P26" s="11">
+        <v>20263008570</v>
+      </c>
+      <c r="Q26" s="10">
+        <v>1</v>
+      </c>
+      <c r="R26" s="10">
+        <v>1</v>
+      </c>
+      <c r="S26" s="10" t="b">
         <v>1</v>
       </c>
       <c r="T26" s="4">
-        <v>70</v>
-      </c>
-      <c r="U26" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="V26" s="4"/>
-      <c r="W26" s="4"/>
-      <c r="X26" s="5" t="s">
-        <v>42</v>
+        <v>4</v>
+      </c>
+      <c r="U26" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="X26" s="11" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
@@ -4185,20 +4157,30 @@
         <v>48</v>
       </c>
       <c r="C27" s="3">
-        <v>888811111127</v>
+        <v>888811111155</v>
       </c>
       <c r="D27" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="4">
+        <v>23</v>
+      </c>
+      <c r="G27" s="5">
+        <v>30512823099</v>
+      </c>
+      <c r="H27" s="5">
+        <v>30512823099</v>
+      </c>
+      <c r="I27" s="5">
+        <v>30526712729</v>
+      </c>
+      <c r="J27" s="4">
+        <v>1</v>
+      </c>
+      <c r="K27" s="4">
+        <v>1</v>
+      </c>
       <c r="L27" s="4"/>
       <c r="M27" s="4" t="b">
         <v>0</v>
@@ -4222,7 +4204,7 @@
         <v>1</v>
       </c>
       <c r="T27" s="4">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="U27" s="4" t="b">
         <v>0</v>
@@ -4241,33 +4223,23 @@
         <v>48</v>
       </c>
       <c r="C28" s="3">
-        <v>888811111127</v>
+        <v>888811111156</v>
       </c>
       <c r="D28" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="4">
-        <v>23</v>
-      </c>
-      <c r="G28" s="5">
-        <v>30512823099</v>
-      </c>
-      <c r="H28" s="5">
-        <v>30512823099</v>
-      </c>
-      <c r="I28" s="5">
-        <v>30526712729</v>
-      </c>
-      <c r="J28" s="4">
-        <v>1</v>
-      </c>
-      <c r="K28" s="4">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28" s="4">
         <v>1</v>
@@ -4288,7 +4260,7 @@
         <v>1</v>
       </c>
       <c r="T28" s="4">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="U28" s="4" t="b">
         <v>0</v>
@@ -4307,20 +4279,30 @@
         <v>48</v>
       </c>
       <c r="C29" s="3">
-        <v>888811111127</v>
+        <v>888811111157</v>
       </c>
       <c r="D29" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="4">
+        <v>23</v>
+      </c>
+      <c r="G29" s="5">
+        <v>30512823099</v>
+      </c>
+      <c r="H29" s="5">
+        <v>30512823099</v>
+      </c>
+      <c r="I29" s="5">
+        <v>30526712729</v>
+      </c>
+      <c r="J29" s="4">
+        <v>1</v>
+      </c>
+      <c r="K29" s="4">
+        <v>1</v>
+      </c>
       <c r="L29" s="4"/>
       <c r="M29" s="4" t="b">
         <v>1</v>
@@ -4344,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="T29" s="4">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="U29" s="4" t="b">
         <v>0</v>
@@ -4357,16 +4339,20 @@
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="C30" s="3">
+        <v>888811111158</v>
+      </c>
       <c r="D30" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E30" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="F30" s="4"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
@@ -4375,18 +4361,36 @@
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
       <c r="M30" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="N30" s="4"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="4"/>
-      <c r="U30" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="N30" s="4">
+        <v>1</v>
+      </c>
+      <c r="O30" s="5">
+        <v>20160289768</v>
+      </c>
+      <c r="P30" s="5">
+        <v>20263008570</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>1</v>
+      </c>
+      <c r="R30" s="4">
+        <v>1</v>
+      </c>
+      <c r="S30" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="T30" s="4">
+        <v>4</v>
+      </c>
+      <c r="U30" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
       <c r="X30" s="5" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
@@ -4397,7 +4401,7 @@
         <v>49</v>
       </c>
       <c r="C31" s="3">
-        <v>888811111129</v>
+        <v>888811111159</v>
       </c>
       <c r="D31" s="3" t="b">
         <v>0</v>
@@ -4417,5 +4421,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>